--- a/NPLF Linkedin 2023.xlsx
+++ b/NPLF Linkedin 2023.xlsx
@@ -8,12 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Tasha/Desktop/NPLF-Dashboard/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{06700EF2-A7E8-5944-B5B3-70D6AD3F9C48}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D495956F-6851-1A4F-9FAD-45C2FA1C31C3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" xr2:uid="{3A0585EB-6B0F-AA4C-BC9B-7AD87C14FB9F}"/>
+    <workbookView xWindow="2780" yWindow="1560" windowWidth="28040" windowHeight="17440" activeTab="3" xr2:uid="{3A0585EB-6B0F-AA4C-BC9B-7AD87C14FB9F}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Seniority" sheetId="2" r:id="rId1"/>
+    <sheet name="Industry" sheetId="3" r:id="rId2"/>
+    <sheet name="Company size" sheetId="4" r:id="rId3"/>
+    <sheet name="Update metrics (aggregated)" sheetId="1" r:id="rId4"/>
+    <sheet name="Update Engagement" sheetId="5" r:id="rId5"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
@@ -34,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="43">
   <si>
     <t>Date</t>
   </si>
@@ -94,13 +98,82 @@
   </si>
   <si>
     <t>Engagement rate (total)</t>
+  </si>
+  <si>
+    <t>Seniority</t>
+  </si>
+  <si>
+    <t>Total views</t>
+  </si>
+  <si>
+    <t>Industry</t>
+  </si>
+  <si>
+    <t>Company size</t>
+  </si>
+  <si>
+    <t>Engagement metrics for individual updates. Created date indicates when your update was created. All dates and times are in UTC.</t>
+  </si>
+  <si>
+    <t>Update title</t>
+  </si>
+  <si>
+    <t>Update link</t>
+  </si>
+  <si>
+    <t>Update type</t>
+  </si>
+  <si>
+    <t>Campaign name</t>
+  </si>
+  <si>
+    <t>Posted by</t>
+  </si>
+  <si>
+    <t>Created date</t>
+  </si>
+  <si>
+    <t>Campaign start date</t>
+  </si>
+  <si>
+    <t>Campaign end date</t>
+  </si>
+  <si>
+    <t>Audience</t>
+  </si>
+  <si>
+    <t>Impressions</t>
+  </si>
+  <si>
+    <t>Video views</t>
+  </si>
+  <si>
+    <t>Clicks</t>
+  </si>
+  <si>
+    <t>Click through rate (CTR)</t>
+  </si>
+  <si>
+    <t>Likes</t>
+  </si>
+  <si>
+    <t>Comments</t>
+  </si>
+  <si>
+    <t>Shares</t>
+  </si>
+  <si>
+    <t>Follows</t>
+  </si>
+  <si>
+    <t>Engagement rate</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -113,6 +186,12 @@
       <sz val="10"/>
       <color theme="1"/>
       <name val="Helvetica"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="10"/>
+      <name val="Arial"/>
       <family val="2"/>
     </font>
   </fonts>
@@ -136,9 +215,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -452,6 +534,78 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38C85ABC-6DB0-C447-8E8D-AC5ECD2DC3E4}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3A6CA794-B277-E74B-A1E5-A1C6854F1B21}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BC0BBCA7-AA64-724A-9277-E5B1013EA516}">
+  <dimension ref="A1:B1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="16.5" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" s="2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>21</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9EA2C65-0217-F34F-A3D3-41B600E63057}">
   <dimension ref="A1:T1"/>
   <sheetViews>
@@ -526,4 +680,80 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{73613262-5161-3246-BF30-B85FFDC71E63}">
+  <dimension ref="A1:R2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="2" spans="1:18" x14ac:dyDescent="0.2">
+      <c r="A2" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="D2" s="2" t="s">
+        <v>28</v>
+      </c>
+      <c r="E2" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="L2" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="N2" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="O2" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="P2" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="Q2" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="R2" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>